--- a/工作流程.xlsx
+++ b/工作流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\中原資工 大資盃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F077DDCA-8C38-48D7-A08C-7A63770218F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240203B0-AA3A-45C4-A7A4-5D5492CE12AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>北資盃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,18 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>製作報名表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彙整參與學校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認所有舉辦項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>確認場地細項事宜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +120,99 @@
   </si>
   <si>
     <t>企劃書初版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃總務作帳原則</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責小組/人</t>
+  </si>
+  <si>
+    <t>負責小組/人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳振瑋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙整長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立參賽資格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報名長</t>
+  </si>
+  <si>
+    <t>列舉參與學校</t>
+  </si>
+  <si>
+    <t>製作秩序冊比賽規章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賽務長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認場地事宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庶務長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公關長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認所有舉辦項目
+撰寫企畫書
+撰寫秩序冊
+撰寫公文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定帳務紀錄SOP
+接管可使用戶頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助撰寫企畫書
+制定行銷策略
+創建數位媒體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查報名資料是否正確</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立參賽資格
+製作報名表
+列舉參與學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報名長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙整參賽資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +238,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,9 +272,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -461,261 +566,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44909</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44916</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44923</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44909</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44916</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44930</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44923</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44930</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44986</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44937</v>
-      </c>
-      <c r="H7" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45063</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44944</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44951</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44965</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45063</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>45070</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>45077</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>45084</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>45091</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>45098</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>45105</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>45112</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>45119</v>
       </c>
     </row>
